--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>53.435824</v>
+        <v>51.93629233333333</v>
       </c>
       <c r="H2">
-        <v>160.307472</v>
+        <v>155.808877</v>
       </c>
       <c r="I2">
-        <v>0.8055519732580868</v>
+        <v>0.7704232182162135</v>
       </c>
       <c r="J2">
-        <v>0.8055519732580869</v>
+        <v>0.7704232182162134</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>434.499188926816</v>
+        <v>197.1082184852255</v>
       </c>
       <c r="R2">
-        <v>3910.492700341344</v>
+        <v>1773.973966367029</v>
       </c>
       <c r="S2">
-        <v>0.0168440560991682</v>
+        <v>0.008044865221818045</v>
       </c>
       <c r="T2">
-        <v>0.0168440560991682</v>
+        <v>0.008044865221818043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.435824</v>
+        <v>51.93629233333333</v>
       </c>
       <c r="H3">
-        <v>160.307472</v>
+        <v>155.808877</v>
       </c>
       <c r="I3">
-        <v>0.8055519732580868</v>
+        <v>0.7704232182162135</v>
       </c>
       <c r="J3">
-        <v>0.8055519732580869</v>
+        <v>0.7704232182162134</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>13005.01840490584</v>
+        <v>12640.06778818588</v>
       </c>
       <c r="R3">
-        <v>117045.1656441525</v>
+        <v>113760.6100936729</v>
       </c>
       <c r="S3">
-        <v>0.5041603417580724</v>
+        <v>0.51589752336086</v>
       </c>
       <c r="T3">
-        <v>0.5041603417580726</v>
+        <v>0.5158975233608599</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.435824</v>
+        <v>51.93629233333333</v>
       </c>
       <c r="H4">
-        <v>160.307472</v>
+        <v>155.808877</v>
       </c>
       <c r="I4">
-        <v>0.8055519732580868</v>
+        <v>0.7704232182162135</v>
       </c>
       <c r="J4">
-        <v>0.8055519732580869</v>
+        <v>0.7704232182162134</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>1785.758407676117</v>
+        <v>1547.772716190122</v>
       </c>
       <c r="R4">
-        <v>16071.82566908506</v>
+        <v>13929.9544457111</v>
       </c>
       <c r="S4">
-        <v>0.06922778123648964</v>
+        <v>0.06317150543720274</v>
       </c>
       <c r="T4">
-        <v>0.06922778123648965</v>
+        <v>0.06317150543720272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.435824</v>
+        <v>51.93629233333333</v>
       </c>
       <c r="H5">
-        <v>160.307472</v>
+        <v>155.808877</v>
       </c>
       <c r="I5">
-        <v>0.8055519732580868</v>
+        <v>0.7704232182162135</v>
       </c>
       <c r="J5">
-        <v>0.8055519732580869</v>
+        <v>0.7704232182162134</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>5554.260528075653</v>
+        <v>4491.283983985057</v>
       </c>
       <c r="R5">
-        <v>49988.34475268088</v>
+        <v>40421.55585586551</v>
       </c>
       <c r="S5">
-        <v>0.2153197941643565</v>
+        <v>0.1833093241963327</v>
       </c>
       <c r="T5">
-        <v>0.2153197941643566</v>
+        <v>0.1833093241963327</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03171066666666667</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H6">
-        <v>0.09513200000000001</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I6">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="J6">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>0.2578468509626667</v>
+        <v>0.1203480790182222</v>
       </c>
       <c r="R6">
-        <v>2.320621658664</v>
+        <v>1.083132711164</v>
       </c>
       <c r="S6">
-        <v>9.995845638599237E-06</v>
+        <v>4.911941687905203E-06</v>
       </c>
       <c r="T6">
-        <v>9.995845638599237E-06</v>
+        <v>4.911941687905203E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03171066666666667</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H7">
-        <v>0.09513200000000001</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I7">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="J7">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
-        <v>7.717627852652446</v>
+        <v>7.717627852652445</v>
       </c>
       <c r="R7">
         <v>69.458650673872</v>
       </c>
       <c r="S7">
-        <v>0.0002991861891012102</v>
+        <v>0.0003149908024326838</v>
       </c>
       <c r="T7">
-        <v>0.0002991861891012102</v>
+        <v>0.0003149908024326838</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.03171066666666667</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H8">
-        <v>0.09513200000000001</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I8">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="J8">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>1.059730820526222</v>
+        <v>0.9450213419906666</v>
       </c>
       <c r="R8">
-        <v>9.537577384736</v>
+        <v>8.505192077915998</v>
       </c>
       <c r="S8">
-        <v>4.108216044096642E-05</v>
+        <v>3.857053443272022E-05</v>
       </c>
       <c r="T8">
-        <v>4.108216044096642E-05</v>
+        <v>3.857053443272022E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.03171066666666667</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H9">
-        <v>0.09513200000000001</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I9">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="J9">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>3.296090356642222</v>
+        <v>2.742236746655111</v>
       </c>
       <c r="R9">
-        <v>29.66481320978</v>
+        <v>24.680130719896</v>
       </c>
       <c r="S9">
-        <v>0.0001277782152190858</v>
+        <v>0.0001119229081501275</v>
       </c>
       <c r="T9">
-        <v>0.0001277782152190858</v>
+        <v>0.0001119229081501275</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.131391333333333</v>
+        <v>2.162051666666667</v>
       </c>
       <c r="H10">
-        <v>6.394174</v>
+        <v>6.486155</v>
       </c>
       <c r="I10">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="J10">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>17.33084167690533</v>
+        <v>8.205401909603891</v>
       </c>
       <c r="R10">
-        <v>155.977575092148</v>
+        <v>73.84861718643501</v>
       </c>
       <c r="S10">
-        <v>0.0006718578006385299</v>
+        <v>0.0003348990364831473</v>
       </c>
       <c r="T10">
-        <v>0.0006718578006385299</v>
+        <v>0.0003348990364831473</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.131391333333333</v>
+        <v>2.162051666666667</v>
       </c>
       <c r="H11">
-        <v>6.394174</v>
+        <v>6.486155</v>
       </c>
       <c r="I11">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="J11">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>518.7303468560115</v>
+        <v>526.1923483645978</v>
       </c>
       <c r="R11">
-        <v>4668.573121704104</v>
+        <v>4735.73113528138</v>
       </c>
       <c r="S11">
-        <v>0.0201094116754619</v>
+        <v>0.02147625581458147</v>
       </c>
       <c r="T11">
-        <v>0.0201094116754619</v>
+        <v>0.02147625581458147</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.131391333333333</v>
+        <v>2.162051666666667</v>
       </c>
       <c r="H12">
-        <v>6.394174</v>
+        <v>6.486155</v>
       </c>
       <c r="I12">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="J12">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>71.22843269990577</v>
+        <v>64.43210383950166</v>
       </c>
       <c r="R12">
-        <v>641.055894299152</v>
+        <v>579.888934555515</v>
       </c>
       <c r="S12">
-        <v>0.002761284133156624</v>
+        <v>0.002629761434254094</v>
       </c>
       <c r="T12">
-        <v>0.002761284133156624</v>
+        <v>0.002629761434254093</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.131391333333333</v>
+        <v>2.162051666666667</v>
       </c>
       <c r="H13">
-        <v>6.394174</v>
+        <v>6.486155</v>
       </c>
       <c r="I13">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="J13">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>221.5424385074678</v>
+        <v>186.9672937129544</v>
       </c>
       <c r="R13">
-        <v>1993.88194656721</v>
+        <v>1682.70564341659</v>
       </c>
       <c r="S13">
-        <v>0.008588447015938722</v>
+        <v>0.007630968867599657</v>
       </c>
       <c r="T13">
-        <v>0.008588447015938722</v>
+        <v>0.007630968867599657</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.73549533333333</v>
+        <v>13.28262333333333</v>
       </c>
       <c r="H14">
-        <v>32.206486</v>
+        <v>39.84787</v>
       </c>
       <c r="I14">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="J14">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>87.29282466124133</v>
+        <v>50.41011024122112</v>
       </c>
       <c r="R14">
-        <v>785.6354219511719</v>
+        <v>453.6909921709901</v>
       </c>
       <c r="S14">
-        <v>0.003384045984712897</v>
+        <v>0.002057461357137736</v>
       </c>
       <c r="T14">
-        <v>0.003384045984712897</v>
+        <v>0.002057461357137736</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.73549533333333</v>
+        <v>13.28262333333333</v>
       </c>
       <c r="H15">
-        <v>32.206486</v>
+        <v>39.84787</v>
       </c>
       <c r="I15">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="J15">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>2612.766192129473</v>
+        <v>3232.677031712502</v>
       </c>
       <c r="R15">
-        <v>23514.89572916526</v>
+        <v>29094.09328541252</v>
       </c>
       <c r="S15">
-        <v>0.1012880609120115</v>
+        <v>0.1319399628572223</v>
       </c>
       <c r="T15">
-        <v>0.1012880609120115</v>
+        <v>0.1319399628572223</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.73549533333333</v>
+        <v>13.28262333333333</v>
       </c>
       <c r="H16">
-        <v>32.206486</v>
+        <v>39.84787</v>
       </c>
       <c r="I16">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="J16">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>358.7668275138364</v>
+        <v>395.8403858099233</v>
       </c>
       <c r="R16">
-        <v>3228.901447624528</v>
+        <v>3562.56347228931</v>
       </c>
       <c r="S16">
-        <v>0.01390816996480405</v>
+        <v>0.01615601103630282</v>
       </c>
       <c r="T16">
-        <v>0.01390816996480405</v>
+        <v>0.01615601103630281</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.73549533333333</v>
+        <v>13.28262333333333</v>
       </c>
       <c r="H17">
-        <v>32.206486</v>
+        <v>39.84787</v>
       </c>
       <c r="I17">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="J17">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>1115.875708761854</v>
+        <v>1148.638664066096</v>
       </c>
       <c r="R17">
-        <v>10042.88137885669</v>
+        <v>10337.74797659486</v>
       </c>
       <c r="S17">
-        <v>0.04325870684478905</v>
+        <v>0.04688106519350191</v>
       </c>
       <c r="T17">
-        <v>0.04325870684478906</v>
+        <v>0.04688106519350191</v>
       </c>
     </row>
   </sheetData>
